--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1911.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1911.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292769921617976</v>
+        <v>1.710559844970703</v>
       </c>
       <c r="B1">
-        <v>3.42319259534762</v>
+        <v>3.097336530685425</v>
       </c>
       <c r="C1">
-        <v>2.503823482464347</v>
+        <v>4.841117858886719</v>
       </c>
       <c r="D1">
-        <v>2.290656205365442</v>
+        <v>1.109140515327454</v>
       </c>
       <c r="E1">
-        <v>1.983679568547687</v>
+        <v>0.6284382343292236</v>
       </c>
     </row>
   </sheetData>
